--- a/data/prediction_scores.xlsx
+++ b/data/prediction_scores.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartik Choudhary\Desktop\cvl100\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartik Choudhary\OneDrive\Documents\Study Notes\Sem 7\ELD411 - B. Tech Project\Occupancy-prediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_58FECA5B04B464ECD612B8F30B5E7E590E1016AA" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{75A0699B-C177-476E-9458-1C261D34F2FE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CVL100" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
   <si>
     <t>K</t>
   </si>
@@ -52,11 +53,23 @@
   <si>
     <t>hamming</t>
   </si>
+  <si>
+    <t>7 wtd</t>
+  </si>
+  <si>
+    <t>12 wtd</t>
+  </si>
+  <si>
+    <t>18 wtd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -112,12 +125,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -126,6 +170,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -406,19 +455,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="16" max="16" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="6"/>
       <c r="E1" s="5">
         <v>7</v>
       </c>
@@ -431,15 +483,27 @@
         <v>18</v>
       </c>
       <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="2:10" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="2:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -457,18 +521,36 @@
       <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1">
@@ -486,40 +568,41 @@
       <c r="I3" s="1">
         <v>32.340000000000003</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="7">
         <v>99.25</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="2">
@@ -537,18 +620,19 @@
       <c r="I6" s="2">
         <v>32.340000000000003</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="9">
         <v>99.25</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1">
@@ -566,18 +650,36 @@
       <c r="I7" s="1">
         <v>36.54</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="7">
         <v>99.15</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <v>301.60000000000002</v>
+      </c>
+      <c r="L7" s="1">
+        <v>96.49</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1444.01</v>
+      </c>
+      <c r="N7" s="1">
+        <v>76.489999999999995</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1014.73</v>
+      </c>
+      <c r="P7" s="7">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1">
@@ -589,18 +691,19 @@
       <c r="I8" s="1">
         <v>36.54</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="7">
         <v>99.15</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="1">
@@ -615,15 +718,17 @@
       <c r="H9" s="1">
         <v>98.77</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="2">
@@ -641,18 +746,36 @@
       <c r="I10" s="2">
         <v>99.22</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="9">
         <v>97.7</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="2">
+        <v>55.91</v>
+      </c>
+      <c r="L10" s="2">
+        <v>99.35</v>
+      </c>
+      <c r="M10" s="2">
+        <v>263.5</v>
+      </c>
+      <c r="N10" s="2">
+        <v>95.71</v>
+      </c>
+      <c r="O10" s="2">
+        <v>349.36</v>
+      </c>
+      <c r="P10" s="9">
+        <v>91.91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="1">
@@ -670,40 +793,64 @@
       <c r="I11" s="1">
         <v>109.65</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="7">
         <v>97.46</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="1">
+        <v>505.41</v>
+      </c>
+      <c r="L11" s="1">
+        <v>94.13</v>
+      </c>
+      <c r="M11" s="1">
+        <v>175.327</v>
+      </c>
+      <c r="N11" s="1">
+        <v>97.14</v>
+      </c>
+      <c r="O11" s="1">
+        <v>42.29</v>
+      </c>
+      <c r="P11" s="7">
+        <v>99.02</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>175.327</v>
+      </c>
+      <c r="N13">
+        <v>97.14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="2">
@@ -721,18 +868,36 @@
       <c r="I14" s="2">
         <v>106.14</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="9">
         <v>97.54</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="2">
+        <v>5403.36</v>
+      </c>
+      <c r="L14" s="2">
+        <v>37.24</v>
+      </c>
+      <c r="M14" s="2">
+        <v>683.34</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="2">
+        <v>194.01</v>
+      </c>
+      <c r="P14" s="9">
+        <v>95.51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="1">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="1">
@@ -750,51 +915,54 @@
       <c r="I15" s="1">
         <v>179.44800000000001</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="7">
         <v>95.84</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:10" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>2</v>
       </c>
       <c r="C18" s="4">
         <v>8</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>3</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="1">
@@ -812,40 +980,41 @@
       <c r="I19" s="1">
         <v>46.09</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="7">
         <v>97.32</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>3</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="2">
@@ -863,18 +1032,19 @@
       <c r="I22" s="2">
         <v>697.75</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="9">
         <v>59.51</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="1">
@@ -892,51 +1062,54 @@
       <c r="I23" s="1">
         <v>49.14</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="7">
         <v>97.15</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>3</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>3</v>
       </c>
       <c r="C27" s="1">
         <v>5</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="1">
@@ -954,51 +1127,54 @@
       <c r="I27" s="1">
         <v>60.44</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="7">
         <v>96.49</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28">
         <v>5</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29">
         <v>5</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>3</v>
       </c>
       <c r="C30" s="3">
         <v>5</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="P30" s="10"/>
+    </row>
+    <row r="31" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>3</v>
       </c>
       <c r="C31" s="1">
         <v>8</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="1">
@@ -1016,49 +1192,56 @@
       <c r="I31" s="1">
         <v>207.23</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="7">
         <v>87.97</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
         <v>8</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <v>3</v>
       </c>
       <c r="C34" s="4">
         <v>8</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="D34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="P34" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>